--- a/Code/Results/Cases/Case_0_184/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_184/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.027626976811424</v>
+        <v>1.076453371673271</v>
       </c>
       <c r="D2">
-        <v>1.039292310608658</v>
+        <v>1.081735160211898</v>
       </c>
       <c r="E2">
-        <v>1.038420765381582</v>
+        <v>1.08047521814624</v>
       </c>
       <c r="F2">
-        <v>1.04615865057929</v>
+        <v>1.091889822404316</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051172053324982</v>
+        <v>1.044389096754767</v>
       </c>
       <c r="J2">
-        <v>1.04901164018147</v>
+        <v>1.081352752234992</v>
       </c>
       <c r="K2">
-        <v>1.050230092600728</v>
+        <v>1.08440520869858</v>
       </c>
       <c r="L2">
-        <v>1.049369581400173</v>
+        <v>1.083148555641206</v>
       </c>
       <c r="M2">
-        <v>1.057010303766416</v>
+        <v>1.094533661629578</v>
       </c>
       <c r="N2">
-        <v>1.050501357033845</v>
+        <v>1.08288839717606</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.035171739590412</v>
+        <v>1.077979213603912</v>
       </c>
       <c r="D3">
-        <v>1.045972892618481</v>
+        <v>1.083133123019333</v>
       </c>
       <c r="E3">
-        <v>1.044974233369702</v>
+        <v>1.08184898137148</v>
       </c>
       <c r="F3">
-        <v>1.053219464613353</v>
+        <v>1.093381887774578</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053015805060542</v>
+        <v>1.044668929334359</v>
       </c>
       <c r="J3">
-        <v>1.05474743983409</v>
+        <v>1.082535748191552</v>
       </c>
       <c r="K3">
-        <v>1.056049485557532</v>
+        <v>1.085620270200645</v>
       </c>
       <c r="L3">
-        <v>1.055062268058</v>
+        <v>1.084339236193553</v>
       </c>
       <c r="M3">
-        <v>1.063213833529798</v>
+        <v>1.095844513708981</v>
       </c>
       <c r="N3">
-        <v>1.056245302179877</v>
+        <v>1.08407307312257</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.039911606302972</v>
+        <v>1.078965298278686</v>
       </c>
       <c r="D4">
-        <v>1.05017530781622</v>
+        <v>1.084036784077385</v>
       </c>
       <c r="E4">
-        <v>1.049097336348291</v>
+        <v>1.082737039370468</v>
       </c>
       <c r="F4">
-        <v>1.057662878567135</v>
+        <v>1.094346636689477</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054160277269401</v>
+        <v>1.044848010318628</v>
       </c>
       <c r="J4">
-        <v>1.058346680426356</v>
+        <v>1.08329954189866</v>
       </c>
       <c r="K4">
-        <v>1.059703649215986</v>
+        <v>1.086405045208015</v>
       </c>
       <c r="L4">
-        <v>1.058637222743255</v>
+        <v>1.085108286210864</v>
       </c>
       <c r="M4">
-        <v>1.067111822720103</v>
+        <v>1.096691483502999</v>
       </c>
       <c r="N4">
-        <v>1.059849654106623</v>
+        <v>1.08483795150435</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.041872103468285</v>
+        <v>1.079379559127611</v>
       </c>
       <c r="D5">
-        <v>1.051914737522041</v>
+        <v>1.084416469972735</v>
       </c>
       <c r="E5">
-        <v>1.050804087858936</v>
+        <v>1.0831101789063</v>
       </c>
       <c r="F5">
-        <v>1.059502502876507</v>
+        <v>1.09475205149247</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054630272334595</v>
+        <v>1.044922821161198</v>
       </c>
       <c r="J5">
-        <v>1.0598343276894</v>
+        <v>1.083620242894124</v>
       </c>
       <c r="K5">
-        <v>1.061214588102948</v>
+        <v>1.086734622475242</v>
       </c>
       <c r="L5">
-        <v>1.06011549232504</v>
+        <v>1.085431264792939</v>
       </c>
       <c r="M5">
-        <v>1.068724209153697</v>
+        <v>1.097047258481703</v>
       </c>
       <c r="N5">
-        <v>1.061339413999415</v>
+        <v>1.085159107932012</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.042199446395445</v>
+        <v>1.07944909859432</v>
       </c>
       <c r="D6">
-        <v>1.052205239325212</v>
+        <v>1.084480208566986</v>
       </c>
       <c r="E6">
-        <v>1.051089140754519</v>
+        <v>1.083172819105278</v>
       </c>
       <c r="F6">
-        <v>1.059809764373621</v>
+        <v>1.094820112883686</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054708546599507</v>
+        <v>1.04493535443052</v>
       </c>
       <c r="J6">
-        <v>1.060082654725706</v>
+        <v>1.083674066821799</v>
       </c>
       <c r="K6">
-        <v>1.06146683782595</v>
+        <v>1.086789940036601</v>
       </c>
       <c r="L6">
-        <v>1.060362292715963</v>
+        <v>1.085485475111666</v>
       </c>
       <c r="M6">
-        <v>1.068993432533527</v>
+        <v>1.097106977754795</v>
       </c>
       <c r="N6">
-        <v>1.061588093688597</v>
+        <v>1.085213008295839</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.039937926494594</v>
+        <v>1.078970834779903</v>
       </c>
       <c r="D7">
-        <v>1.050198655338242</v>
+        <v>1.084041858289653</v>
       </c>
       <c r="E7">
-        <v>1.049120244660036</v>
+        <v>1.082742026058429</v>
       </c>
       <c r="F7">
-        <v>1.05768756919353</v>
+        <v>1.094352054505289</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054166600531888</v>
+        <v>1.044849011808618</v>
       </c>
       <c r="J7">
-        <v>1.058366656781997</v>
+        <v>1.083303828678004</v>
       </c>
       <c r="K7">
-        <v>1.059723935998375</v>
+        <v>1.086409450373524</v>
       </c>
       <c r="L7">
-        <v>1.058657070564887</v>
+        <v>1.08511260315704</v>
       </c>
       <c r="M7">
-        <v>1.067133469104106</v>
+        <v>1.096696238522751</v>
       </c>
       <c r="N7">
-        <v>1.059869658830979</v>
+        <v>1.084842244371413</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.030207367246581</v>
+        <v>1.076969297474734</v>
       </c>
       <c r="D8">
-        <v>1.041575942143517</v>
+        <v>1.082207801042638</v>
       </c>
       <c r="E8">
-        <v>1.040660805043664</v>
+        <v>1.08093966898433</v>
       </c>
       <c r="F8">
-        <v>1.048571879356017</v>
+        <v>1.092394225021467</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051805516436531</v>
+        <v>1.044484080289923</v>
       </c>
       <c r="J8">
-        <v>1.05097418631453</v>
+        <v>1.081752903046705</v>
       </c>
       <c r="K8">
-        <v>1.052220718667156</v>
+        <v>1.08481614802708</v>
       </c>
       <c r="L8">
-        <v>1.051316789131031</v>
+        <v>1.083551244647722</v>
       </c>
       <c r="M8">
-        <v>1.059131779942717</v>
+        <v>1.094976930141865</v>
       </c>
       <c r="N8">
-        <v>1.052466690207521</v>
+        <v>1.083289116247823</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.011879207939242</v>
+        <v>1.073432543446995</v>
       </c>
       <c r="D9">
-        <v>1.025382727524089</v>
+        <v>1.078968699347146</v>
       </c>
       <c r="E9">
-        <v>1.024779756399864</v>
+        <v>1.077756860977216</v>
       </c>
       <c r="F9">
-        <v>1.031467198066823</v>
+        <v>1.08893851503276</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047249035316409</v>
+        <v>1.043825721728621</v>
       </c>
       <c r="J9">
-        <v>1.037019343562777</v>
+        <v>1.079006843356728</v>
       </c>
       <c r="K9">
-        <v>1.038076986447135</v>
+        <v>1.081997197169716</v>
       </c>
       <c r="L9">
-        <v>1.037483197198417</v>
+        <v>1.080788980513003</v>
       </c>
       <c r="M9">
-        <v>1.044069568878019</v>
+        <v>1.091937549869803</v>
       </c>
       <c r="N9">
-        <v>1.038492029978417</v>
+        <v>1.08053915683811</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9987189389094858</v>
+        <v>1.071067683117708</v>
       </c>
       <c r="D10">
-        <v>1.01379466970521</v>
+        <v>1.076804058358022</v>
       </c>
       <c r="E10">
-        <v>1.013419335930984</v>
+        <v>1.075630051257584</v>
       </c>
       <c r="F10">
-        <v>1.019236120336885</v>
+        <v>1.086630450551555</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043907379779718</v>
+        <v>1.043376433671809</v>
       </c>
       <c r="J10">
-        <v>1.026983475963455</v>
+        <v>1.077166978149484</v>
       </c>
       <c r="K10">
-        <v>1.027919245244624</v>
+        <v>1.080109935228008</v>
       </c>
       <c r="L10">
-        <v>1.027550454688917</v>
+        <v>1.078939785638344</v>
       </c>
       <c r="M10">
-        <v>1.033266534562941</v>
+        <v>1.089904398202298</v>
       </c>
       <c r="N10">
-        <v>1.028441910295974</v>
+        <v>1.078696678811236</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9927585033129714</v>
+        <v>1.070041907404142</v>
       </c>
       <c r="D11">
-        <v>1.008557273536517</v>
+        <v>1.075865421383322</v>
       </c>
       <c r="E11">
-        <v>1.008285955733844</v>
+        <v>1.074707869620288</v>
       </c>
       <c r="F11">
-        <v>1.013710164040699</v>
+        <v>1.085629937530829</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042378417872092</v>
+        <v>1.04317940315948</v>
       </c>
       <c r="J11">
-        <v>1.02243567115893</v>
+        <v>1.076368049675652</v>
       </c>
       <c r="K11">
-        <v>1.023319596614907</v>
+        <v>1.07929076728815</v>
       </c>
       <c r="L11">
-        <v>1.023053284695411</v>
+        <v>1.078137168525657</v>
       </c>
       <c r="M11">
-        <v>1.028378076934876</v>
+        <v>1.089022306388657</v>
       </c>
       <c r="N11">
-        <v>1.023887647086986</v>
+        <v>1.077896615767333</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9905013639446962</v>
+        <v>1.069660613259371</v>
       </c>
       <c r="D12">
-        <v>1.006575746340711</v>
+        <v>1.075516562490586</v>
       </c>
       <c r="E12">
-        <v>1.006343964139466</v>
+        <v>1.074365134313037</v>
       </c>
       <c r="F12">
-        <v>1.011619759711991</v>
+        <v>1.085258128834553</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041797199788582</v>
+        <v>1.043105841891863</v>
       </c>
       <c r="J12">
-        <v>1.020713235259872</v>
+        <v>1.076070946843195</v>
       </c>
       <c r="K12">
-        <v>1.021578040543241</v>
+        <v>1.078986189218921</v>
       </c>
       <c r="L12">
-        <v>1.021350624768051</v>
+        <v>1.077838748484427</v>
       </c>
       <c r="M12">
-        <v>1.026527678732136</v>
+        <v>1.088694392390433</v>
       </c>
       <c r="N12">
-        <v>1.022162765131386</v>
+        <v>1.077599091014775</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9909875482670167</v>
+        <v>1.069742414747821</v>
       </c>
       <c r="D13">
-        <v>1.007002479959483</v>
+        <v>1.075591403402874</v>
       </c>
       <c r="E13">
-        <v>1.006762175111976</v>
+        <v>1.074438661179036</v>
       </c>
       <c r="F13">
-        <v>1.012069927463281</v>
+        <v>1.085337891038864</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041922491626611</v>
+        <v>1.043121638050045</v>
       </c>
       <c r="J13">
-        <v>1.021084254002404</v>
+        <v>1.076134692136046</v>
       </c>
       <c r="K13">
-        <v>1.021953154469546</v>
+        <v>1.07905153604777</v>
       </c>
       <c r="L13">
-        <v>1.021717356472539</v>
+        <v>1.077902773925943</v>
       </c>
       <c r="M13">
-        <v>1.026926213213397</v>
+        <v>1.088764743195832</v>
       </c>
       <c r="N13">
-        <v>1.022534310763088</v>
+        <v>1.077662926833253</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9925728319532676</v>
+        <v>1.070010395178722</v>
       </c>
       <c r="D14">
-        <v>1.008394236317066</v>
+        <v>1.075836588868738</v>
       </c>
       <c r="E14">
-        <v>1.008126167682703</v>
+        <v>1.074679543050683</v>
       </c>
       <c r="F14">
-        <v>1.013538162614192</v>
+        <v>1.085599207293046</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042330651470769</v>
+        <v>1.043173330230462</v>
       </c>
       <c r="J14">
-        <v>1.022293988406659</v>
+        <v>1.076343498142994</v>
       </c>
       <c r="K14">
-        <v>1.023176330603679</v>
+        <v>1.07926559698108</v>
       </c>
       <c r="L14">
-        <v>1.022913216448522</v>
+        <v>1.078112507031731</v>
       </c>
       <c r="M14">
-        <v>1.028225846902148</v>
+        <v>1.088995206377814</v>
       </c>
       <c r="N14">
-        <v>1.023745763128956</v>
+        <v>1.077872029368683</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9935437346497286</v>
+        <v>1.070175470018578</v>
       </c>
       <c r="D15">
-        <v>1.009246856178244</v>
+        <v>1.075987628042058</v>
       </c>
       <c r="E15">
-        <v>1.008961803156744</v>
+        <v>1.074827932146318</v>
       </c>
       <c r="F15">
-        <v>1.014437673722086</v>
+        <v>1.085760189632086</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042580339422473</v>
+        <v>1.043205129692683</v>
       </c>
       <c r="J15">
-        <v>1.023034859217097</v>
+        <v>1.076472104474944</v>
       </c>
       <c r="K15">
-        <v>1.023925501380366</v>
+        <v>1.07939744669147</v>
       </c>
       <c r="L15">
-        <v>1.023645669272687</v>
+        <v>1.078241691596461</v>
       </c>
       <c r="M15">
-        <v>1.029021913281137</v>
+        <v>1.089137166920404</v>
       </c>
       <c r="N15">
-        <v>1.024487686060923</v>
+        <v>1.078000818336375</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9991086802222751</v>
+        <v>1.071135722330393</v>
       </c>
       <c r="D16">
-        <v>1.014137372673453</v>
+        <v>1.076866323915393</v>
       </c>
       <c r="E16">
-        <v>1.013755257139975</v>
+        <v>1.075691226307712</v>
       </c>
       <c r="F16">
-        <v>1.019597746578866</v>
+        <v>1.086696827370027</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044007043960253</v>
+        <v>1.043389457403169</v>
       </c>
       <c r="J16">
-        <v>1.027280807749369</v>
+        <v>1.077219952345009</v>
       </c>
       <c r="K16">
-        <v>1.028220037071526</v>
+        <v>1.080164258625149</v>
       </c>
       <c r="L16">
-        <v>1.027844557721858</v>
+        <v>1.078993012048757</v>
       </c>
       <c r="M16">
-        <v>1.033586283061049</v>
+        <v>1.089962902830151</v>
       </c>
       <c r="N16">
-        <v>1.028739664327129</v>
+        <v>1.078749728236194</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.002526753060272</v>
+        <v>1.071737581801166</v>
       </c>
       <c r="D17">
-        <v>1.017144168314147</v>
+        <v>1.07741714474913</v>
       </c>
       <c r="E17">
-        <v>1.016702680297584</v>
+        <v>1.076232406047211</v>
       </c>
       <c r="F17">
-        <v>1.022770802075947</v>
+        <v>1.087284054148994</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044879374436412</v>
+        <v>1.043504414447964</v>
       </c>
       <c r="J17">
-        <v>1.029888176971079</v>
+        <v>1.077688449347878</v>
       </c>
       <c r="K17">
-        <v>1.030858130410841</v>
+        <v>1.080644727213169</v>
       </c>
       <c r="L17">
-        <v>1.030424054655155</v>
+        <v>1.079463781438852</v>
       </c>
       <c r="M17">
-        <v>1.036391018507361</v>
+        <v>1.09048039883769</v>
       </c>
       <c r="N17">
-        <v>1.031350736312203</v>
+        <v>1.079218890558545</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.004495465124528</v>
+        <v>1.072088465514913</v>
       </c>
       <c r="D18">
-        <v>1.018877015206836</v>
+        <v>1.077738301072233</v>
       </c>
       <c r="E18">
-        <v>1.01840141580623</v>
+        <v>1.076547946023755</v>
       </c>
       <c r="F18">
-        <v>1.024599661003269</v>
+        <v>1.087626467401697</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045380349960304</v>
+        <v>1.043571227231088</v>
       </c>
       <c r="J18">
-        <v>1.031389708406681</v>
+        <v>1.077961498618653</v>
       </c>
       <c r="K18">
-        <v>1.032377672428211</v>
+        <v>1.08092478667418</v>
       </c>
       <c r="L18">
-        <v>1.031909900557874</v>
+        <v>1.079738190026676</v>
       </c>
       <c r="M18">
-        <v>1.038006865199572</v>
+        <v>1.090782079655304</v>
       </c>
       <c r="N18">
-        <v>1.032854400094671</v>
+        <v>1.079492327590604</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.005162613760213</v>
+        <v>1.072208079093679</v>
       </c>
       <c r="D19">
-        <v>1.019464403273197</v>
+        <v>1.077847785554328</v>
       </c>
       <c r="E19">
-        <v>1.018977258618347</v>
+        <v>1.076655516681935</v>
       </c>
       <c r="F19">
-        <v>1.025219627936261</v>
+        <v>1.087743203684831</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045549867418488</v>
+        <v>1.043593968060493</v>
       </c>
       <c r="J19">
-        <v>1.03189849692463</v>
+        <v>1.078054564734129</v>
       </c>
       <c r="K19">
-        <v>1.0328926173876</v>
+        <v>1.081020247725631</v>
       </c>
       <c r="L19">
-        <v>1.032413435768536</v>
+        <v>1.079831725374699</v>
       </c>
       <c r="M19">
-        <v>1.038554500155623</v>
+        <v>1.090884917093504</v>
       </c>
       <c r="N19">
-        <v>1.033363911150675</v>
+        <v>1.079585525870638</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.002162637191075</v>
+        <v>1.071673025698039</v>
       </c>
       <c r="D20">
-        <v>1.016823757482044</v>
+        <v>1.077358060192816</v>
       </c>
       <c r="E20">
-        <v>1.016388585278029</v>
+        <v>1.076174355149028</v>
       </c>
       <c r="F20">
-        <v>1.022432654067079</v>
+        <v>1.087221061311231</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044786599206688</v>
+        <v>1.043492105453742</v>
       </c>
       <c r="J20">
-        <v>1.029610446596989</v>
+        <v>1.077638206556462</v>
       </c>
       <c r="K20">
-        <v>1.030577094368023</v>
+        <v>1.080593197153329</v>
       </c>
       <c r="L20">
-        <v>1.030149255089187</v>
+        <v>1.079413291337115</v>
       </c>
       <c r="M20">
-        <v>1.036092196954709</v>
+        <v>1.0904248936178</v>
       </c>
       <c r="N20">
-        <v>1.031072611529126</v>
+        <v>1.079168576416602</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9921072302557533</v>
+        <v>1.069931489292127</v>
       </c>
       <c r="D21">
-        <v>1.007985423093411</v>
+        <v>1.075764393640165</v>
       </c>
       <c r="E21">
-        <v>1.0077255046663</v>
+        <v>1.074608614808672</v>
       </c>
       <c r="F21">
-        <v>1.013106876520383</v>
+        <v>1.08552226102213</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042210833993426</v>
+        <v>1.043158118548878</v>
       </c>
       <c r="J21">
-        <v>1.021938692003293</v>
+        <v>1.076282019560499</v>
       </c>
       <c r="K21">
-        <v>1.022817072185142</v>
+        <v>1.079202569777805</v>
       </c>
       <c r="L21">
-        <v>1.022561978391114</v>
+        <v>1.07805075397973</v>
       </c>
       <c r="M21">
-        <v>1.027844118199651</v>
+        <v>1.088927348108185</v>
       </c>
       <c r="N21">
-        <v>1.023389962163944</v>
+        <v>1.077810463479548</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9855329586366798</v>
+        <v>1.068834918705558</v>
       </c>
       <c r="D22">
-        <v>1.002217543671674</v>
+        <v>1.074761189169079</v>
       </c>
       <c r="E22">
-        <v>1.002073066897346</v>
+        <v>1.073623034368579</v>
       </c>
       <c r="F22">
-        <v>1.007022624227963</v>
+        <v>1.084453149647899</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040513856120822</v>
+        <v>1.042945955042688</v>
       </c>
       <c r="J22">
-        <v>1.016921524203996</v>
+        <v>1.075427330358156</v>
       </c>
       <c r="K22">
-        <v>1.017745198218538</v>
+        <v>1.07832647301919</v>
       </c>
       <c r="L22">
-        <v>1.017603567489556</v>
+        <v>1.077192378286995</v>
       </c>
       <c r="M22">
-        <v>1.022456233567132</v>
+        <v>1.087984240404838</v>
       </c>
       <c r="N22">
-        <v>1.018365669410895</v>
+        <v>1.076954560520504</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9890434066807905</v>
+        <v>1.069416385837993</v>
       </c>
       <c r="D23">
-        <v>1.005296346436328</v>
+        <v>1.075293123238858</v>
       </c>
       <c r="E23">
-        <v>1.005090143852963</v>
+        <v>1.074145619309949</v>
       </c>
       <c r="F23">
-        <v>1.010270143932561</v>
+        <v>1.085020003888733</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041421161166463</v>
+        <v>1.043058633513966</v>
       </c>
       <c r="J23">
-        <v>1.019600608766012</v>
+        <v>1.07588060908637</v>
       </c>
       <c r="K23">
-        <v>1.020453209345327</v>
+        <v>1.078791076938322</v>
       </c>
       <c r="L23">
-        <v>1.020250943200027</v>
+        <v>1.077647582213408</v>
       </c>
       <c r="M23">
-        <v>1.025332692315572</v>
+        <v>1.088484348050315</v>
       </c>
       <c r="N23">
-        <v>1.021048558580284</v>
+        <v>1.077408482956504</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.002327242429563</v>
+        <v>1.071702196350085</v>
       </c>
       <c r="D24">
-        <v>1.016968601905937</v>
+        <v>1.077384758356831</v>
       </c>
       <c r="E24">
-        <v>1.016530574258442</v>
+        <v>1.076200586225363</v>
       </c>
       <c r="F24">
-        <v>1.022585516125671</v>
+        <v>1.087249525391569</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044828544495549</v>
+        <v>1.043497668099208</v>
       </c>
       <c r="J24">
-        <v>1.029736000442776</v>
+        <v>1.077660909782326</v>
       </c>
       <c r="K24">
-        <v>1.030704141625789</v>
+        <v>1.080616481955829</v>
       </c>
       <c r="L24">
-        <v>1.030273482866767</v>
+        <v>1.07943610620721</v>
       </c>
       <c r="M24">
-        <v>1.036227283472742</v>
+        <v>1.09044997455022</v>
       </c>
       <c r="N24">
-        <v>1.031198343675775</v>
+        <v>1.079191311883651</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.01677162020725</v>
+        <v>1.074348084619601</v>
       </c>
       <c r="D25">
-        <v>1.029699062517156</v>
+        <v>1.079806981819765</v>
       </c>
       <c r="E25">
-        <v>1.029012195655137</v>
+        <v>1.078580537692518</v>
       </c>
       <c r="F25">
-        <v>1.03602487347584</v>
+        <v>1.089832621189307</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048477548600925</v>
+        <v>1.043997746234033</v>
       </c>
       <c r="J25">
-        <v>1.040747441576553</v>
+        <v>1.079718355531191</v>
       </c>
       <c r="K25">
-        <v>1.041853191323123</v>
+        <v>1.082727342357795</v>
       </c>
       <c r="L25">
-        <v>1.041176230357886</v>
+        <v>1.081504422825448</v>
       </c>
       <c r="M25">
-        <v>1.048088553319519</v>
+        <v>1.092724492561917</v>
       </c>
       <c r="N25">
-        <v>1.042225422318991</v>
+        <v>1.081251679441472</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_184/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_184/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.076453371673271</v>
+        <v>1.027626976811423</v>
       </c>
       <c r="D2">
-        <v>1.081735160211898</v>
+        <v>1.039292310608658</v>
       </c>
       <c r="E2">
-        <v>1.08047521814624</v>
+        <v>1.038420765381582</v>
       </c>
       <c r="F2">
-        <v>1.091889822404316</v>
+        <v>1.04615865057929</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044389096754767</v>
+        <v>1.051172053324982</v>
       </c>
       <c r="J2">
-        <v>1.081352752234992</v>
+        <v>1.04901164018147</v>
       </c>
       <c r="K2">
-        <v>1.08440520869858</v>
+        <v>1.050230092600729</v>
       </c>
       <c r="L2">
-        <v>1.083148555641206</v>
+        <v>1.049369581400172</v>
       </c>
       <c r="M2">
-        <v>1.094533661629578</v>
+        <v>1.057010303766416</v>
       </c>
       <c r="N2">
-        <v>1.08288839717606</v>
+        <v>1.050501357033844</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.077979213603912</v>
+        <v>1.035171739590411</v>
       </c>
       <c r="D3">
-        <v>1.083133123019333</v>
+        <v>1.045972892618481</v>
       </c>
       <c r="E3">
-        <v>1.08184898137148</v>
+        <v>1.044974233369702</v>
       </c>
       <c r="F3">
-        <v>1.093381887774578</v>
+        <v>1.053219464613354</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044668929334359</v>
+        <v>1.053015805060542</v>
       </c>
       <c r="J3">
-        <v>1.082535748191552</v>
+        <v>1.05474743983409</v>
       </c>
       <c r="K3">
-        <v>1.085620270200645</v>
+        <v>1.056049485557532</v>
       </c>
       <c r="L3">
-        <v>1.084339236193553</v>
+        <v>1.055062268058</v>
       </c>
       <c r="M3">
-        <v>1.095844513708981</v>
+        <v>1.063213833529799</v>
       </c>
       <c r="N3">
-        <v>1.08407307312257</v>
+        <v>1.056245302179877</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.078965298278686</v>
+        <v>1.039911606302973</v>
       </c>
       <c r="D4">
-        <v>1.084036784077385</v>
+        <v>1.050175307816221</v>
       </c>
       <c r="E4">
-        <v>1.082737039370468</v>
+        <v>1.049097336348292</v>
       </c>
       <c r="F4">
-        <v>1.094346636689477</v>
+        <v>1.057662878567136</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044848010318628</v>
+        <v>1.054160277269401</v>
       </c>
       <c r="J4">
-        <v>1.08329954189866</v>
+        <v>1.058346680426357</v>
       </c>
       <c r="K4">
-        <v>1.086405045208015</v>
+        <v>1.059703649215987</v>
       </c>
       <c r="L4">
-        <v>1.085108286210864</v>
+        <v>1.058637222743256</v>
       </c>
       <c r="M4">
-        <v>1.096691483502999</v>
+        <v>1.067111822720104</v>
       </c>
       <c r="N4">
-        <v>1.08483795150435</v>
+        <v>1.059849654106624</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.079379559127611</v>
+        <v>1.041872103468285</v>
       </c>
       <c r="D5">
-        <v>1.084416469972735</v>
+        <v>1.051914737522041</v>
       </c>
       <c r="E5">
-        <v>1.0831101789063</v>
+        <v>1.050804087858936</v>
       </c>
       <c r="F5">
-        <v>1.09475205149247</v>
+        <v>1.059502502876507</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044922821161198</v>
+        <v>1.054630272334595</v>
       </c>
       <c r="J5">
-        <v>1.083620242894124</v>
+        <v>1.0598343276894</v>
       </c>
       <c r="K5">
-        <v>1.086734622475242</v>
+        <v>1.061214588102948</v>
       </c>
       <c r="L5">
-        <v>1.085431264792939</v>
+        <v>1.060115492325041</v>
       </c>
       <c r="M5">
-        <v>1.097047258481703</v>
+        <v>1.068724209153697</v>
       </c>
       <c r="N5">
-        <v>1.085159107932012</v>
+        <v>1.061339413999415</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.07944909859432</v>
+        <v>1.042199446395445</v>
       </c>
       <c r="D6">
-        <v>1.084480208566986</v>
+        <v>1.052205239325212</v>
       </c>
       <c r="E6">
-        <v>1.083172819105278</v>
+        <v>1.051089140754518</v>
       </c>
       <c r="F6">
-        <v>1.094820112883686</v>
+        <v>1.059809764373621</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04493535443052</v>
+        <v>1.054708546599507</v>
       </c>
       <c r="J6">
-        <v>1.083674066821799</v>
+        <v>1.060082654725705</v>
       </c>
       <c r="K6">
-        <v>1.086789940036601</v>
+        <v>1.061466837825949</v>
       </c>
       <c r="L6">
-        <v>1.085485475111666</v>
+        <v>1.060362292715963</v>
       </c>
       <c r="M6">
-        <v>1.097106977754795</v>
+        <v>1.068993432533527</v>
       </c>
       <c r="N6">
-        <v>1.085213008295839</v>
+        <v>1.061588093688596</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.078970834779903</v>
+        <v>1.039937926494594</v>
       </c>
       <c r="D7">
-        <v>1.084041858289653</v>
+        <v>1.050198655338241</v>
       </c>
       <c r="E7">
-        <v>1.082742026058429</v>
+        <v>1.049120244660036</v>
       </c>
       <c r="F7">
-        <v>1.094352054505289</v>
+        <v>1.057687569193529</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044849011808618</v>
+        <v>1.054166600531888</v>
       </c>
       <c r="J7">
-        <v>1.083303828678004</v>
+        <v>1.058366656781996</v>
       </c>
       <c r="K7">
-        <v>1.086409450373524</v>
+        <v>1.059723935998375</v>
       </c>
       <c r="L7">
-        <v>1.08511260315704</v>
+        <v>1.058657070564886</v>
       </c>
       <c r="M7">
-        <v>1.096696238522751</v>
+        <v>1.067133469104106</v>
       </c>
       <c r="N7">
-        <v>1.084842244371413</v>
+        <v>1.059869658830979</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C8">
-        <v>1.076969297474734</v>
+        <v>1.030207367246581</v>
       </c>
       <c r="D8">
-        <v>1.082207801042638</v>
+        <v>1.041575942143518</v>
       </c>
       <c r="E8">
-        <v>1.08093966898433</v>
+        <v>1.040660805043664</v>
       </c>
       <c r="F8">
-        <v>1.092394225021467</v>
+        <v>1.048571879356017</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044484080289923</v>
+        <v>1.051805516436531</v>
       </c>
       <c r="J8">
-        <v>1.081752903046705</v>
+        <v>1.05097418631453</v>
       </c>
       <c r="K8">
-        <v>1.08481614802708</v>
+        <v>1.052220718667156</v>
       </c>
       <c r="L8">
-        <v>1.083551244647722</v>
+        <v>1.051316789131032</v>
       </c>
       <c r="M8">
-        <v>1.094976930141865</v>
+        <v>1.059131779942718</v>
       </c>
       <c r="N8">
-        <v>1.083289116247823</v>
+        <v>1.052466690207521</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.073432543446995</v>
+        <v>1.011879207939242</v>
       </c>
       <c r="D9">
-        <v>1.078968699347146</v>
+        <v>1.025382727524089</v>
       </c>
       <c r="E9">
-        <v>1.077756860977216</v>
+        <v>1.024779756399864</v>
       </c>
       <c r="F9">
-        <v>1.08893851503276</v>
+        <v>1.031467198066824</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043825721728621</v>
+        <v>1.047249035316409</v>
       </c>
       <c r="J9">
-        <v>1.079006843356728</v>
+        <v>1.037019343562777</v>
       </c>
       <c r="K9">
-        <v>1.081997197169716</v>
+        <v>1.038076986447135</v>
       </c>
       <c r="L9">
-        <v>1.080788980513003</v>
+        <v>1.037483197198417</v>
       </c>
       <c r="M9">
-        <v>1.091937549869803</v>
+        <v>1.044069568878019</v>
       </c>
       <c r="N9">
-        <v>1.08053915683811</v>
+        <v>1.038492029978417</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.071067683117708</v>
+        <v>0.9987189389094862</v>
       </c>
       <c r="D10">
-        <v>1.076804058358022</v>
+        <v>1.013794669705211</v>
       </c>
       <c r="E10">
-        <v>1.075630051257584</v>
+        <v>1.013419335930984</v>
       </c>
       <c r="F10">
-        <v>1.086630450551555</v>
+        <v>1.019236120336886</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043376433671809</v>
+        <v>1.043907379779718</v>
       </c>
       <c r="J10">
-        <v>1.077166978149484</v>
+        <v>1.026983475963455</v>
       </c>
       <c r="K10">
-        <v>1.080109935228008</v>
+        <v>1.027919245244624</v>
       </c>
       <c r="L10">
-        <v>1.078939785638344</v>
+        <v>1.027550454688917</v>
       </c>
       <c r="M10">
-        <v>1.089904398202298</v>
+        <v>1.033266534562941</v>
       </c>
       <c r="N10">
-        <v>1.078696678811236</v>
+        <v>1.028441910295974</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.070041907404142</v>
+        <v>0.9927585033129706</v>
       </c>
       <c r="D11">
-        <v>1.075865421383322</v>
+        <v>1.008557273536516</v>
       </c>
       <c r="E11">
-        <v>1.074707869620288</v>
+        <v>1.008285955733843</v>
       </c>
       <c r="F11">
-        <v>1.085629937530829</v>
+        <v>1.013710164040698</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04317940315948</v>
+        <v>1.042378417872091</v>
       </c>
       <c r="J11">
-        <v>1.076368049675652</v>
+        <v>1.022435671158929</v>
       </c>
       <c r="K11">
-        <v>1.07929076728815</v>
+        <v>1.023319596614906</v>
       </c>
       <c r="L11">
-        <v>1.078137168525657</v>
+        <v>1.023053284695411</v>
       </c>
       <c r="M11">
-        <v>1.089022306388657</v>
+        <v>1.028378076934875</v>
       </c>
       <c r="N11">
-        <v>1.077896615767333</v>
+        <v>1.023887647086986</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.069660613259371</v>
+        <v>0.9905013639446962</v>
       </c>
       <c r="D12">
-        <v>1.075516562490586</v>
+        <v>1.006575746340711</v>
       </c>
       <c r="E12">
-        <v>1.074365134313037</v>
+        <v>1.006343964139467</v>
       </c>
       <c r="F12">
-        <v>1.085258128834553</v>
+        <v>1.011619759711991</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043105841891863</v>
+        <v>1.041797199788582</v>
       </c>
       <c r="J12">
-        <v>1.076070946843195</v>
+        <v>1.020713235259872</v>
       </c>
       <c r="K12">
-        <v>1.078986189218921</v>
+        <v>1.021578040543241</v>
       </c>
       <c r="L12">
-        <v>1.077838748484427</v>
+        <v>1.021350624768051</v>
       </c>
       <c r="M12">
-        <v>1.088694392390433</v>
+        <v>1.026527678732136</v>
       </c>
       <c r="N12">
-        <v>1.077599091014775</v>
+        <v>1.022162765131386</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.069742414747821</v>
+        <v>0.9909875482670162</v>
       </c>
       <c r="D13">
-        <v>1.075591403402874</v>
+        <v>1.007002479959483</v>
       </c>
       <c r="E13">
-        <v>1.074438661179036</v>
+        <v>1.006762175111975</v>
       </c>
       <c r="F13">
-        <v>1.085337891038864</v>
+        <v>1.01206992746328</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043121638050045</v>
+        <v>1.041922491626611</v>
       </c>
       <c r="J13">
-        <v>1.076134692136046</v>
+        <v>1.021084254002403</v>
       </c>
       <c r="K13">
-        <v>1.07905153604777</v>
+        <v>1.021953154469545</v>
       </c>
       <c r="L13">
-        <v>1.077902773925943</v>
+        <v>1.021717356472538</v>
       </c>
       <c r="M13">
-        <v>1.088764743195832</v>
+        <v>1.026926213213396</v>
       </c>
       <c r="N13">
-        <v>1.077662926833253</v>
+        <v>1.022534310763088</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.070010395178722</v>
+        <v>0.9925728319532668</v>
       </c>
       <c r="D14">
-        <v>1.075836588868738</v>
+        <v>1.008394236317065</v>
       </c>
       <c r="E14">
-        <v>1.074679543050683</v>
+        <v>1.008126167682702</v>
       </c>
       <c r="F14">
-        <v>1.085599207293046</v>
+        <v>1.013538162614191</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043173330230462</v>
+        <v>1.042330651470769</v>
       </c>
       <c r="J14">
-        <v>1.076343498142994</v>
+        <v>1.022293988406658</v>
       </c>
       <c r="K14">
-        <v>1.07926559698108</v>
+        <v>1.023176330603678</v>
       </c>
       <c r="L14">
-        <v>1.078112507031731</v>
+        <v>1.022913216448521</v>
       </c>
       <c r="M14">
-        <v>1.088995206377814</v>
+        <v>1.028225846902147</v>
       </c>
       <c r="N14">
-        <v>1.077872029368683</v>
+        <v>1.023745763128955</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.070175470018578</v>
+        <v>0.9935437346497289</v>
       </c>
       <c r="D15">
-        <v>1.075987628042058</v>
+        <v>1.009246856178244</v>
       </c>
       <c r="E15">
-        <v>1.074827932146318</v>
+        <v>1.008961803156745</v>
       </c>
       <c r="F15">
-        <v>1.085760189632086</v>
+        <v>1.014437673722087</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043205129692683</v>
+        <v>1.042580339422473</v>
       </c>
       <c r="J15">
-        <v>1.076472104474944</v>
+        <v>1.023034859217096</v>
       </c>
       <c r="K15">
-        <v>1.07939744669147</v>
+        <v>1.023925501380366</v>
       </c>
       <c r="L15">
-        <v>1.078241691596461</v>
+        <v>1.023645669272687</v>
       </c>
       <c r="M15">
-        <v>1.089137166920404</v>
+        <v>1.029021913281137</v>
       </c>
       <c r="N15">
-        <v>1.078000818336375</v>
+        <v>1.024487686060924</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.071135722330393</v>
+        <v>0.9991086802222741</v>
       </c>
       <c r="D16">
-        <v>1.076866323915393</v>
+        <v>1.014137372673452</v>
       </c>
       <c r="E16">
-        <v>1.075691226307712</v>
+        <v>1.013755257139974</v>
       </c>
       <c r="F16">
-        <v>1.086696827370027</v>
+        <v>1.019597746578865</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043389457403169</v>
+        <v>1.044007043960252</v>
       </c>
       <c r="J16">
-        <v>1.077219952345009</v>
+        <v>1.027280807749368</v>
       </c>
       <c r="K16">
-        <v>1.080164258625149</v>
+        <v>1.028220037071525</v>
       </c>
       <c r="L16">
-        <v>1.078993012048757</v>
+        <v>1.027844557721857</v>
       </c>
       <c r="M16">
-        <v>1.089962902830151</v>
+        <v>1.033586283061048</v>
       </c>
       <c r="N16">
-        <v>1.078749728236194</v>
+        <v>1.028739664327128</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.071737581801166</v>
+        <v>1.002526753060271</v>
       </c>
       <c r="D17">
-        <v>1.07741714474913</v>
+        <v>1.017144168314147</v>
       </c>
       <c r="E17">
-        <v>1.076232406047211</v>
+        <v>1.016702680297583</v>
       </c>
       <c r="F17">
-        <v>1.087284054148994</v>
+        <v>1.022770802075946</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043504414447964</v>
+        <v>1.044879374436411</v>
       </c>
       <c r="J17">
-        <v>1.077688449347878</v>
+        <v>1.029888176971079</v>
       </c>
       <c r="K17">
-        <v>1.080644727213169</v>
+        <v>1.030858130410841</v>
       </c>
       <c r="L17">
-        <v>1.079463781438852</v>
+        <v>1.030424054655154</v>
       </c>
       <c r="M17">
-        <v>1.09048039883769</v>
+        <v>1.036391018507361</v>
       </c>
       <c r="N17">
-        <v>1.079218890558545</v>
+        <v>1.031350736312203</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.072088465514913</v>
+        <v>1.004495465124529</v>
       </c>
       <c r="D18">
-        <v>1.077738301072233</v>
+        <v>1.018877015206838</v>
       </c>
       <c r="E18">
-        <v>1.076547946023755</v>
+        <v>1.018401415806232</v>
       </c>
       <c r="F18">
-        <v>1.087626467401697</v>
+        <v>1.024599661003271</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043571227231088</v>
+        <v>1.045380349960305</v>
       </c>
       <c r="J18">
-        <v>1.077961498618653</v>
+        <v>1.031389708406682</v>
       </c>
       <c r="K18">
-        <v>1.08092478667418</v>
+        <v>1.032377672428212</v>
       </c>
       <c r="L18">
-        <v>1.079738190026676</v>
+        <v>1.031909900557876</v>
       </c>
       <c r="M18">
-        <v>1.090782079655304</v>
+        <v>1.038006865199574</v>
       </c>
       <c r="N18">
-        <v>1.079492327590604</v>
+        <v>1.032854400094672</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.072208079093679</v>
+        <v>1.005162613760214</v>
       </c>
       <c r="D19">
-        <v>1.077847785554328</v>
+        <v>1.019464403273198</v>
       </c>
       <c r="E19">
-        <v>1.076655516681935</v>
+        <v>1.018977258618347</v>
       </c>
       <c r="F19">
-        <v>1.087743203684831</v>
+        <v>1.025219627936261</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043593968060493</v>
+        <v>1.045549867418488</v>
       </c>
       <c r="J19">
-        <v>1.078054564734129</v>
+        <v>1.031898496924631</v>
       </c>
       <c r="K19">
-        <v>1.081020247725631</v>
+        <v>1.0328926173876</v>
       </c>
       <c r="L19">
-        <v>1.079831725374699</v>
+        <v>1.032413435768537</v>
       </c>
       <c r="M19">
-        <v>1.090884917093504</v>
+        <v>1.038554500155624</v>
       </c>
       <c r="N19">
-        <v>1.079585525870638</v>
+        <v>1.033363911150675</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.071673025698039</v>
+        <v>1.002162637191076</v>
       </c>
       <c r="D20">
-        <v>1.077358060192816</v>
+        <v>1.016823757482045</v>
       </c>
       <c r="E20">
-        <v>1.076174355149028</v>
+        <v>1.01638858527803</v>
       </c>
       <c r="F20">
-        <v>1.087221061311231</v>
+        <v>1.02243265406708</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043492105453742</v>
+        <v>1.044786599206688</v>
       </c>
       <c r="J20">
-        <v>1.077638206556462</v>
+        <v>1.02961044659699</v>
       </c>
       <c r="K20">
-        <v>1.080593197153329</v>
+        <v>1.030577094368024</v>
       </c>
       <c r="L20">
-        <v>1.079413291337115</v>
+        <v>1.030149255089188</v>
       </c>
       <c r="M20">
-        <v>1.0904248936178</v>
+        <v>1.036092196954709</v>
       </c>
       <c r="N20">
-        <v>1.079168576416602</v>
+        <v>1.031072611529126</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.069931489292127</v>
+        <v>0.9921072302557545</v>
       </c>
       <c r="D21">
-        <v>1.075764393640165</v>
+        <v>1.007985423093412</v>
       </c>
       <c r="E21">
-        <v>1.074608614808672</v>
+        <v>1.007725504666302</v>
       </c>
       <c r="F21">
-        <v>1.08552226102213</v>
+        <v>1.013106876520384</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043158118548878</v>
+        <v>1.042210833993427</v>
       </c>
       <c r="J21">
-        <v>1.076282019560499</v>
+        <v>1.021938692003294</v>
       </c>
       <c r="K21">
-        <v>1.079202569777805</v>
+        <v>1.022817072185144</v>
       </c>
       <c r="L21">
-        <v>1.07805075397973</v>
+        <v>1.022561978391116</v>
       </c>
       <c r="M21">
-        <v>1.088927348108185</v>
+        <v>1.027844118199652</v>
       </c>
       <c r="N21">
-        <v>1.077810463479548</v>
+        <v>1.023389962163945</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.068834918705558</v>
+        <v>0.9855329586366782</v>
       </c>
       <c r="D22">
-        <v>1.074761189169079</v>
+        <v>1.002217543671673</v>
       </c>
       <c r="E22">
-        <v>1.073623034368579</v>
+        <v>1.002073066897344</v>
       </c>
       <c r="F22">
-        <v>1.084453149647899</v>
+        <v>1.007022624227961</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042945955042688</v>
+        <v>1.040513856120822</v>
       </c>
       <c r="J22">
-        <v>1.075427330358156</v>
+        <v>1.016921524203994</v>
       </c>
       <c r="K22">
-        <v>1.07832647301919</v>
+        <v>1.017745198218537</v>
       </c>
       <c r="L22">
-        <v>1.077192378286995</v>
+        <v>1.017603567489555</v>
       </c>
       <c r="M22">
-        <v>1.087984240404838</v>
+        <v>1.02245623356713</v>
       </c>
       <c r="N22">
-        <v>1.076954560520504</v>
+        <v>1.018365669410893</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.069416385837993</v>
+        <v>0.9890434066807907</v>
       </c>
       <c r="D23">
-        <v>1.075293123238858</v>
+        <v>1.005296346436329</v>
       </c>
       <c r="E23">
-        <v>1.074145619309949</v>
+        <v>1.005090143852964</v>
       </c>
       <c r="F23">
-        <v>1.085020003888733</v>
+        <v>1.010270143932561</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043058633513966</v>
+        <v>1.041421161166463</v>
       </c>
       <c r="J23">
-        <v>1.07588060908637</v>
+        <v>1.019600608766012</v>
       </c>
       <c r="K23">
-        <v>1.078791076938322</v>
+        <v>1.020453209345328</v>
       </c>
       <c r="L23">
-        <v>1.077647582213408</v>
+        <v>1.020250943200027</v>
       </c>
       <c r="M23">
-        <v>1.088484348050315</v>
+        <v>1.025332692315572</v>
       </c>
       <c r="N23">
-        <v>1.077408482956504</v>
+        <v>1.021048558580284</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.071702196350085</v>
+        <v>1.002327242429562</v>
       </c>
       <c r="D24">
-        <v>1.077384758356831</v>
+        <v>1.016968601905935</v>
       </c>
       <c r="E24">
-        <v>1.076200586225363</v>
+        <v>1.01653057425844</v>
       </c>
       <c r="F24">
-        <v>1.087249525391569</v>
+        <v>1.022585516125669</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043497668099208</v>
+        <v>1.044828544495548</v>
       </c>
       <c r="J24">
-        <v>1.077660909782326</v>
+        <v>1.029736000442775</v>
       </c>
       <c r="K24">
-        <v>1.080616481955829</v>
+        <v>1.030704141625788</v>
       </c>
       <c r="L24">
-        <v>1.07943610620721</v>
+        <v>1.030273482866765</v>
       </c>
       <c r="M24">
-        <v>1.09044997455022</v>
+        <v>1.03622728347274</v>
       </c>
       <c r="N24">
-        <v>1.079191311883651</v>
+        <v>1.031198343675774</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.074348084619601</v>
+        <v>1.016771620207252</v>
       </c>
       <c r="D25">
-        <v>1.079806981819765</v>
+        <v>1.029699062517158</v>
       </c>
       <c r="E25">
-        <v>1.078580537692518</v>
+        <v>1.029012195655138</v>
       </c>
       <c r="F25">
-        <v>1.089832621189307</v>
+        <v>1.036024873475841</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043997746234033</v>
+        <v>1.048477548600926</v>
       </c>
       <c r="J25">
-        <v>1.079718355531191</v>
+        <v>1.040747441576554</v>
       </c>
       <c r="K25">
-        <v>1.082727342357795</v>
+        <v>1.041853191323125</v>
       </c>
       <c r="L25">
-        <v>1.081504422825448</v>
+        <v>1.041176230357888</v>
       </c>
       <c r="M25">
-        <v>1.092724492561917</v>
+        <v>1.048088553319521</v>
       </c>
       <c r="N25">
-        <v>1.081251679441472</v>
+        <v>1.042225422318993</v>
       </c>
     </row>
   </sheetData>
